--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattvail/Desktop/stuff /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattvail/Desktop/production-assistant-react/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8129358-5911-1544-9791-944DC4BB6BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B54CF9-B014-C349-8CE2-3D017D7E98D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42360" yWindow="-21700" windowWidth="19400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1134,10 +1134,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="J4" s="8">
         <f ca="1">TODAY()</f>
-        <v>44940</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1243,7 +1243,8 @@
       </c>
       <c r="J8" s="67"/>
       <c r="K8" s="4">
-        <v>2022</v>
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2024</v>
       </c>
       <c r="L8" s="17"/>
     </row>
@@ -1346,7 +1347,7 @@
       <c r="I16" s="42"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1360,7 +1361,7 @@
       <c r="I17" s="42"/>
       <c r="J17" s="43"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1374,7 +1375,7 @@
       <c r="I18" s="42"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1388,7 +1389,7 @@
       <c r="I19" s="42"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1404,7 +1405,7 @@
       <c r="I20" s="42"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1418,7 +1419,7 @@
       <c r="I21" s="42"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1432,7 +1433,7 @@
       <c r="I22" s="42"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1446,7 +1447,7 @@
       <c r="I23" s="42"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1460,274 +1461,228 @@
       <c r="I24" s="40"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>11</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="40"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="1"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="3"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="10" t="s">
+    <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="1"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D37" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="12" t="s">
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I37" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="31"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2185</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="19"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3762</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="19"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B33" s="4">
-        <v>28</v>
-      </c>
-      <c r="C33" s="4">
-        <v>863</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="13">
-        <v>9750</v>
-      </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="19"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B34" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="15">
-        <v>2330</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="19"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B35" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="16">
-        <v>136</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="19"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B36" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="4">
-        <v>592</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="13">
-        <v>0</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="19"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B37" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="15">
-        <v>524</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="19"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B38" s="4">
-        <v>10</v>
-      </c>
-      <c r="C38" s="4">
-        <v>696</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="19"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K37" s="12"/>
+      <c r="L37" s="31"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B39" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="4">
-        <v>584</v>
-      </c>
-      <c r="D39" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="13">
-        <v>1725</v>
-      </c>
-      <c r="H39" s="33"/>
+        <v>2185</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="19"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B40" s="14" t="s">
-        <v>30</v>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="C40" s="4">
-        <v>564</v>
+        <v>3762</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="60"/>
+        <v>57</v>
+      </c>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -1735,37 +1690,39 @@
       <c r="K40" s="13"/>
       <c r="L40" s="19"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="14" t="s">
-        <v>30</v>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B41" s="4">
+        <v>28</v>
       </c>
       <c r="C41" s="4">
-        <v>596</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="33"/>
+        <v>863</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="13">
+        <v>9750</v>
+      </c>
+      <c r="H41" s="37"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="19"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="14" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B42" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="15">
-        <v>2326</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
+        <v>2330</v>
+      </c>
+      <c r="D42" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -1773,15 +1730,15 @@
       <c r="K42" s="13"/>
       <c r="L42" s="19"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="4">
-        <v>10</v>
-      </c>
-      <c r="C43" s="4">
-        <v>676</v>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B43" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="16">
+        <v>136</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E43" s="59"/>
       <c r="F43" s="60"/>
@@ -1792,20 +1749,20 @@
       <c r="K43" s="13"/>
       <c r="L43" s="19"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="4">
-        <v>10</v>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B44" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C44" s="4">
-        <v>732</v>
+        <v>592</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="13" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="13">
+        <v>0</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
@@ -1813,18 +1770,18 @@
       <c r="K44" s="13"/>
       <c r="L44" s="19"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="4">
-        <v>10</v>
-      </c>
-      <c r="C45" s="4">
-        <v>720</v>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B45" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="15">
+        <v>524</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="59"/>
-      <c r="F45" s="60"/>
+        <v>38</v>
+      </c>
+      <c r="E45" s="50"/>
+      <c r="F45" s="51"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
@@ -1832,18 +1789,18 @@
       <c r="K45" s="13"/>
       <c r="L45" s="19"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>10</v>
       </c>
       <c r="C46" s="4">
-        <v>832</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
+        <v>696</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -1851,37 +1808,39 @@
       <c r="K46" s="13"/>
       <c r="L46" s="19"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="15">
-        <v>520</v>
+      <c r="C47" s="4">
+        <v>584</v>
       </c>
       <c r="D47" s="58" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E47" s="50"/>
       <c r="F47" s="51"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="13">
+        <v>1725</v>
+      </c>
+      <c r="H47" s="33"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="19"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="4">
-        <v>400</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
+        <v>564</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
@@ -1890,36 +1849,36 @@
       <c r="L48" s="19"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B49" s="14">
-        <v>28</v>
+      <c r="B49" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C49" s="4">
-        <v>737</v>
+        <v>596</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="60"/>
+        <v>40</v>
+      </c>
+      <c r="E49" s="50"/>
+      <c r="F49" s="51"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="19"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B50" s="15">
-        <v>100</v>
+      <c r="B50" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C50" s="15">
-        <v>2437</v>
-      </c>
-      <c r="D50" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+        <v>2326</v>
+      </c>
+      <c r="D50" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
@@ -1928,17 +1887,17 @@
       <c r="L50" s="19"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B51" s="15">
-        <v>99</v>
-      </c>
-      <c r="C51" s="15">
-        <v>2394</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
+      <c r="B51" s="4">
+        <v>10</v>
+      </c>
+      <c r="C51" s="4">
+        <v>676</v>
+      </c>
+      <c r="D51" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="59"/>
+      <c r="F51" s="60"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -1947,18 +1906,20 @@
       <c r="L51" s="19"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B52" s="14" t="s">
-        <v>30</v>
+      <c r="B52" s="4">
+        <v>10</v>
       </c>
       <c r="C52" s="4">
-        <v>2192</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="13"/>
+        <v>732</v>
+      </c>
+      <c r="D52" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="59"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
@@ -1967,16 +1928,16 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53" s="4">
-        <v>760</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
+        <v>720</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -1986,16 +1947,16 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C54" s="4">
-        <v>792</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
+        <v>832</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -2004,17 +1965,17 @@
       <c r="L54" s="19"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B55" s="15">
-        <v>13</v>
+      <c r="B55" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C55" s="15">
-        <v>840</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
+        <v>520</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="50"/>
+      <c r="F55" s="51"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -2024,19 +1985,17 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C56" s="4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E56" s="61"/>
       <c r="F56" s="61"/>
-      <c r="G56" s="13">
-        <v>50</v>
-      </c>
+      <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -2044,17 +2003,17 @@
       <c r="L56" s="19"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B57" s="4">
-        <v>12</v>
+      <c r="B57" s="14">
+        <v>28</v>
       </c>
       <c r="C57" s="4">
-        <v>768</v>
-      </c>
-      <c r="D57" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
+        <v>737</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="59"/>
+      <c r="F57" s="60"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -2063,17 +2022,17 @@
       <c r="L57" s="19"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B58" s="14" t="s">
-        <v>30</v>
+      <c r="B58" s="15">
+        <v>100</v>
       </c>
       <c r="C58" s="15">
-        <v>2322</v>
-      </c>
-      <c r="D58" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="51"/>
+        <v>2437</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
@@ -2082,11 +2041,17 @@
       <c r="L58" s="19"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="51"/>
+      <c r="B59" s="15">
+        <v>99</v>
+      </c>
+      <c r="C59" s="15">
+        <v>2394</v>
+      </c>
+      <c r="D59" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -2095,166 +2060,212 @@
       <c r="L59" s="19"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2192</v>
+      </c>
       <c r="D60" s="61" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E60" s="61"/>
       <c r="F60" s="61"/>
-      <c r="G60" s="13">
-        <f>SUM(G31:G58)</f>
-        <v>11525</v>
-      </c>
-      <c r="H60" s="13">
-        <f>SUM(H31:H58)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="13">
-        <f>SUM(I31:I58)</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="13">
-        <f>SUM(J31:J58)</f>
-        <v>0</v>
-      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="19"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
+      <c r="B61" s="4">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4">
+        <v>760</v>
+      </c>
+      <c r="D61" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
       <c r="L61" s="19"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="4">
+        <v>13</v>
+      </c>
+      <c r="C62" s="4">
+        <v>792</v>
+      </c>
+      <c r="D62" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="19"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B63" s="15">
+        <v>13</v>
+      </c>
+      <c r="C63" s="15">
+        <v>840</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="19"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B64" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="4">
+        <v>500</v>
+      </c>
+      <c r="D64" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="13">
+        <v>50</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="19"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B65" s="4">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4">
+        <v>768</v>
+      </c>
+      <c r="D65" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="19"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B66" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="15">
+        <v>2322</v>
+      </c>
+      <c r="D66" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="50"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="19"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="19"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D68" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="13">
+        <f>SUM(G39:G66)</f>
+        <v>11525</v>
+      </c>
+      <c r="H68" s="13">
+        <f>SUM(H39:H66)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="13">
+        <f>SUM(I39:I66)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="13">
+        <f>SUM(J39:J66)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="13"/>
+      <c r="L68" s="19"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B70" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B63" s="27"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="21"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B64" s="28"/>
-      <c r="C64" s="36" t="s">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B71" s="27"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="21"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B72" s="28"/>
+      <c r="C72" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="23"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B65" s="28"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="23"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B66" s="28"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="23"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B67" s="28"/>
-      <c r="C67" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="23"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B68" s="28"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="23"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B69" s="28"/>
-      <c r="C69" s="35"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="23"/>
-    </row>
-    <row r="70" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="28"/>
-      <c r="C70" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="23"/>
-    </row>
-    <row r="71" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B71" s="28"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="23"/>
-    </row>
-    <row r="72" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="28"/>
-      <c r="C72" s="34"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -2265,11 +2276,10 @@
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
     </row>
-    <row r="73" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B73" s="28"/>
-      <c r="C73" s="34"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
@@ -2292,7 +2302,9 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B75" s="28"/>
-      <c r="C75" s="22"/>
+      <c r="C75" s="47" t="s">
+        <v>67</v>
+      </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -2304,76 +2316,177 @@
       <c r="L75" s="23"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B76" s="29"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24" t="s">
+      <c r="B76" s="28"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="23"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B77" s="28"/>
+      <c r="C77" s="35"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="23"/>
+    </row>
+    <row r="78" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B78" s="28"/>
+      <c r="C78" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="23"/>
+    </row>
+    <row r="79" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B79" s="28"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="23"/>
+    </row>
+    <row r="80" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B80" s="28"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="23"/>
+    </row>
+    <row r="81" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B81" s="28"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="23"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B82" s="28"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="23"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B83" s="28"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="23"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B84" s="29"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="25"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B80" s="9"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="72" t="s">
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="25"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B88" s="9"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="74"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="75"/>
-      <c r="I80" s="75"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C14:I14"/>
     <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D45:F45"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D41:F41"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I10:J10"/>
@@ -2381,7 +2494,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J26" xr:uid="{41442916-F751-7D43-A611-4F4F70DEA026}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J34" xr:uid="{41442916-F751-7D43-A611-4F4F70DEA026}">
       <formula1>":06, :15, :30, :60, :27/03, :12/03"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{452A77CF-699A-544C-A3D1-BCC05ACB4170}">

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattvail/Desktop/production-assistant-react/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B54CF9-B014-C349-8CE2-3D017D7E98D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAE8154-139C-9843-9C2B-6E007D5392F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,15 +645,46 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -672,18 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -704,25 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1157,30 +1157,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -1218,8 +1218,8 @@
       <c r="H6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="51"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
@@ -1234,14 +1234,14 @@
       <c r="F8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="66" t="s">
+      <c r="H8" s="55"/>
+      <c r="I8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="67"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="4">
         <f ca="1">YEAR(TODAY())</f>
         <v>2024</v>
@@ -1257,16 +1257,16 @@
       <c r="B10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="68"/>
+      <c r="J10" s="75"/>
       <c r="K10" s="32" t="s">
         <v>64</v>
       </c>
@@ -1283,17 +1283,17 @@
       <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="55"/>
       <c r="F12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="51"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="2"/>
       <c r="J12" s="7"/>
       <c r="K12" s="1"/>
@@ -1304,15 +1304,15 @@
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="9" t="s">
         <v>7</v>
       </c>
@@ -1603,9 +1603,9 @@
     </row>
     <row r="35" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="1"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="3"/>
       <c r="H35" s="1"/>
     </row>
@@ -1624,11 +1624,11 @@
       <c r="C37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
       <c r="G37" s="12" t="s">
         <v>9</v>
       </c>
@@ -1659,11 +1659,11 @@
       <c r="C39" s="4">
         <v>2185</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -1678,11 +1678,11 @@
       <c r="C40" s="4">
         <v>3762</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -1697,11 +1697,11 @@
       <c r="C41" s="4">
         <v>863</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="13">
         <v>9750</v>
       </c>
@@ -1718,11 +1718,11 @@
       <c r="C42" s="15">
         <v>2330</v>
       </c>
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -1737,11 +1737,11 @@
       <c r="C43" s="16">
         <v>136</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="59"/>
-      <c r="F43" s="60"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -1756,11 +1756,11 @@
       <c r="C44" s="4">
         <v>592</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="13">
         <v>0</v>
       </c>
@@ -1777,11 +1777,11 @@
       <c r="C45" s="15">
         <v>524</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
@@ -1796,11 +1796,11 @@
       <c r="C46" s="4">
         <v>696</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -1815,11 +1815,11 @@
       <c r="C47" s="4">
         <v>584</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="51"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="13">
         <v>1725</v>
       </c>
@@ -1836,11 +1836,11 @@
       <c r="C48" s="4">
         <v>564</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="59"/>
-      <c r="F48" s="60"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
@@ -1855,11 +1855,11 @@
       <c r="C49" s="4">
         <v>596</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="13"/>
       <c r="H49" s="33"/>
       <c r="I49" s="13"/>
@@ -1874,11 +1874,11 @@
       <c r="C50" s="15">
         <v>2326</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
@@ -1893,11 +1893,11 @@
       <c r="C51" s="4">
         <v>676</v>
       </c>
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -1912,11 +1912,11 @@
       <c r="C52" s="4">
         <v>732</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="D52" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="59"/>
-      <c r="F52" s="60"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="13" t="s">
         <v>63</v>
       </c>
@@ -1933,11 +1933,11 @@
       <c r="C53" s="4">
         <v>720</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="60"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -1952,11 +1952,11 @@
       <c r="C54" s="4">
         <v>832</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="50"/>
-      <c r="F54" s="51"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -1971,11 +1971,11 @@
       <c r="C55" s="15">
         <v>520</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="50"/>
-      <c r="F55" s="51"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -1990,11 +1990,11 @@
       <c r="C56" s="4">
         <v>400</v>
       </c>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -2009,11 +2009,11 @@
       <c r="C57" s="4">
         <v>737</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="60"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -2028,11 +2028,11 @@
       <c r="C58" s="15">
         <v>2437</v>
       </c>
-      <c r="D58" s="61" t="s">
+      <c r="D58" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
@@ -2047,11 +2047,11 @@
       <c r="C59" s="15">
         <v>2394</v>
       </c>
-      <c r="D59" s="61" t="s">
+      <c r="D59" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -2066,11 +2066,11 @@
       <c r="C60" s="4">
         <v>2192</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
@@ -2085,11 +2085,11 @@
       <c r="C61" s="4">
         <v>760</v>
       </c>
-      <c r="D61" s="61" t="s">
+      <c r="D61" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
@@ -2104,11 +2104,11 @@
       <c r="C62" s="4">
         <v>792</v>
       </c>
-      <c r="D62" s="61" t="s">
+      <c r="D62" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
@@ -2123,11 +2123,11 @@
       <c r="C63" s="15">
         <v>840</v>
       </c>
-      <c r="D63" s="61" t="s">
+      <c r="D63" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
@@ -2142,11 +2142,11 @@
       <c r="C64" s="4">
         <v>500</v>
       </c>
-      <c r="D64" s="61" t="s">
+      <c r="D64" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="13">
         <v>50</v>
       </c>
@@ -2163,11 +2163,11 @@
       <c r="C65" s="4">
         <v>768</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D65" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
@@ -2182,11 +2182,11 @@
       <c r="C66" s="15">
         <v>2322</v>
       </c>
-      <c r="D66" s="58" t="s">
+      <c r="D66" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="55"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
@@ -2197,9 +2197,9 @@
     <row r="67" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="51"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="55"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
@@ -2208,11 +2208,11 @@
       <c r="L67" s="19"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D68" s="61" t="s">
+      <c r="D68" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="13">
         <f>SUM(G39:G66)</f>
         <v>11525</v>
@@ -2435,18 +2435,46 @@
       <c r="B88" s="9"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="72" t="s">
+      <c r="E88" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="74"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="75"/>
-      <c r="I88" s="75"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="52"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="G88:I88"/>
     <mergeCell ref="D49:F49"/>
@@ -2463,34 +2491,6 @@
     <mergeCell ref="D64:F64"/>
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="D68:F68"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
